--- a/Testdata/ManageQADataPage_Data.xlsx
+++ b/Testdata/ManageQADataPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66D3793-A05D-4871-9119-00A507254636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3674786-4C4C-4BE7-84B3-44A203349D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,28 +58,28 @@
     <t>Override_QA_Excel_Files</t>
   </si>
   <si>
-    <t>\ExtractionTemplate\ManageQAData\1stUpload\sample_population_data_sheet - Copy (1).xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManageQAData\1stUpload\sample_population_data_sheet - Copy (2).xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManageQAData\1stUpload\sample_population_data_sheet - Copy (3).xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManageQAData\1stUpload\sample_population_data_sheet - Copy (4).xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManageQAData\Override\sample_population_data_sheet - Copy (5).xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManageQAData\Override\sample_population_data_sheet - Copy (6).xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManageQAData\Override\sample_population_data_sheet - Copy (7).xlsx</t>
-  </si>
-  <si>
-    <t>\ExtractionTemplate\ManageQAData\Override\sample_population_data_sheet - Copy (8).xlsx</t>
+    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (1).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (2).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (3).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (4).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\Override\Cochrane RoB2 RRMM JA - Overridedata - Copy (1).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\Override\Cochrane RoB2 RRMM JA - Overridedata - Copy (2).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\Override\Cochrane RoB2 RRMM JA - Overridedata - Copy (3).xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\Override\Cochrane RoB2 RRMM JA - Overridedata - Copy (4).xlsx</t>
   </si>
 </sst>
 </file>
@@ -409,9 +409,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="2"/>
-    <col min="2" max="2" width="52.21875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="24.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
